--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H2">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.43724603514203</v>
+        <v>6.546185</v>
       </c>
       <c r="N2">
-        <v>4.43724603514203</v>
+        <v>19.638555</v>
       </c>
       <c r="O2">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="P2">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="Q2">
-        <v>39.67607402289622</v>
+        <v>133.0722801124533</v>
       </c>
       <c r="R2">
-        <v>39.67607402289622</v>
+        <v>1197.65052101208</v>
       </c>
       <c r="S2">
-        <v>8.930190696159685E-05</v>
+        <v>0.0002856000955294863</v>
       </c>
       <c r="T2">
-        <v>8.930190696159685E-05</v>
+        <v>0.0002856000955294863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H3">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.80083992085861</v>
+        <v>71.03440333333334</v>
       </c>
       <c r="N3">
-        <v>70.80083992085861</v>
+        <v>213.10321</v>
       </c>
       <c r="O3">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510699</v>
       </c>
       <c r="P3">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510698</v>
       </c>
       <c r="Q3">
-        <v>633.0727084628058</v>
+        <v>1444.002883816196</v>
       </c>
       <c r="R3">
-        <v>633.0727084628058</v>
+        <v>12996.02595434576</v>
       </c>
       <c r="S3">
-        <v>0.001424904089009581</v>
+        <v>0.003099122981993339</v>
       </c>
       <c r="T3">
-        <v>0.001424904089009581</v>
+        <v>0.003099122981993339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H4">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.300028312245914</v>
+        <v>0.3068453333333334</v>
       </c>
       <c r="N4">
-        <v>0.300028312245914</v>
+        <v>0.920536</v>
       </c>
       <c r="O4">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="P4">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="Q4">
-        <v>2.68273281025141</v>
+        <v>6.237619032846223</v>
       </c>
       <c r="R4">
-        <v>2.68273281025141</v>
+        <v>56.138571295616</v>
       </c>
       <c r="S4">
-        <v>6.038227363061226E-06</v>
+        <v>1.338719521565264E-05</v>
       </c>
       <c r="T4">
-        <v>6.038227363061226E-06</v>
+        <v>1.338719521565264E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H5">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.6627912311017</v>
+        <v>17.965059</v>
       </c>
       <c r="N5">
-        <v>16.6627912311017</v>
+        <v>53.895177</v>
       </c>
       <c r="O5">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="P5">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="Q5">
-        <v>148.9919948268308</v>
+        <v>365.197647711568</v>
       </c>
       <c r="R5">
-        <v>148.9919948268308</v>
+        <v>3286.778829404112</v>
       </c>
       <c r="S5">
-        <v>0.0003353474250595001</v>
+        <v>0.0007837882013100545</v>
       </c>
       <c r="T5">
-        <v>0.0003353474250595001</v>
+        <v>0.0007837882013100545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H6">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.43724603514203</v>
+        <v>6.546185</v>
       </c>
       <c r="N6">
-        <v>4.43724603514203</v>
+        <v>19.638555</v>
       </c>
       <c r="O6">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="P6">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="Q6">
-        <v>21213.63649407664</v>
+        <v>31486.47115026745</v>
       </c>
       <c r="R6">
-        <v>21213.63649407664</v>
+        <v>283378.240352407</v>
       </c>
       <c r="S6">
-        <v>0.04774711810997075</v>
+        <v>0.06757635144452033</v>
       </c>
       <c r="T6">
-        <v>0.04774711810997075</v>
+        <v>0.06757635144452033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H7">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.80083992085861</v>
+        <v>71.03440333333334</v>
       </c>
       <c r="N7">
-        <v>70.80083992085861</v>
+        <v>213.10321</v>
       </c>
       <c r="O7">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510699</v>
       </c>
       <c r="P7">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510698</v>
       </c>
       <c r="Q7">
-        <v>338485.46365501</v>
+        <v>341668.1152811084</v>
       </c>
       <c r="R7">
-        <v>338485.46365501</v>
+        <v>3075013.037529975</v>
       </c>
       <c r="S7">
-        <v>0.7618545465392843</v>
+        <v>0.7332890537473568</v>
       </c>
       <c r="T7">
-        <v>0.7618545465392843</v>
+        <v>0.7332890537473566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H8">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.300028312245914</v>
+        <v>0.3068453333333334</v>
       </c>
       <c r="N8">
-        <v>0.300028312245914</v>
+        <v>0.920536</v>
       </c>
       <c r="O8">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="P8">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="Q8">
-        <v>1434.378779880395</v>
+        <v>1475.894240018301</v>
       </c>
       <c r="R8">
-        <v>1434.378779880395</v>
+        <v>13283.0481601647</v>
       </c>
       <c r="S8">
-        <v>0.003228463589281747</v>
+        <v>0.003167568298855642</v>
       </c>
       <c r="T8">
-        <v>0.003228463589281747</v>
+        <v>0.003167568298855642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H9">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.6627912311017</v>
+        <v>17.965059</v>
       </c>
       <c r="N9">
-        <v>16.6627912311017</v>
+        <v>53.895177</v>
       </c>
       <c r="O9">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="P9">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="Q9">
-        <v>79661.66251630106</v>
+        <v>86410.0711966363</v>
       </c>
       <c r="R9">
-        <v>79661.66251630106</v>
+        <v>777690.6407697267</v>
       </c>
       <c r="S9">
-        <v>0.1793004612888751</v>
+        <v>0.1854535337307979</v>
       </c>
       <c r="T9">
-        <v>0.1793004612888751</v>
+        <v>0.1854535337307979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H10">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.43724603514203</v>
+        <v>6.546185</v>
       </c>
       <c r="N10">
-        <v>4.43724603514203</v>
+        <v>19.638555</v>
       </c>
       <c r="O10">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="P10">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="Q10">
-        <v>11.42558975393446</v>
+        <v>17.6423613461</v>
       </c>
       <c r="R10">
-        <v>11.42558975393446</v>
+        <v>158.7812521149</v>
       </c>
       <c r="S10">
-        <v>2.571642931703426E-05</v>
+        <v>3.786408470309471E-05</v>
       </c>
       <c r="T10">
-        <v>2.571642931703426E-05</v>
+        <v>3.786408470309471E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H11">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.80083992085861</v>
+        <v>71.03440333333334</v>
       </c>
       <c r="N11">
-        <v>70.80083992085861</v>
+        <v>213.10321</v>
       </c>
       <c r="O11">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510699</v>
       </c>
       <c r="P11">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510698</v>
       </c>
       <c r="Q11">
-        <v>182.3070762277042</v>
+        <v>191.4419790475334</v>
       </c>
       <c r="R11">
-        <v>182.3070762277042</v>
+        <v>1722.9778114278</v>
       </c>
       <c r="S11">
-        <v>0.0004103321702225912</v>
+        <v>0.0004108733047793679</v>
       </c>
       <c r="T11">
-        <v>0.0004103321702225912</v>
+        <v>0.0004108733047793678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H12">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.300028312245914</v>
+        <v>0.3068453333333334</v>
       </c>
       <c r="N12">
-        <v>0.300028312245914</v>
+        <v>0.920536</v>
       </c>
       <c r="O12">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="P12">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="Q12">
-        <v>0.7725513489984872</v>
+        <v>0.8269665840533335</v>
       </c>
       <c r="R12">
-        <v>0.7725513489984872</v>
+        <v>7.442699256480001</v>
       </c>
       <c r="S12">
-        <v>1.73883909611385E-06</v>
+        <v>1.774837969303138E-06</v>
       </c>
       <c r="T12">
-        <v>1.73883909611385E-06</v>
+        <v>1.774837969303138E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H13">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.6627912311017</v>
+        <v>17.965059</v>
       </c>
       <c r="N13">
-        <v>16.6627912311017</v>
+        <v>53.895177</v>
       </c>
       <c r="O13">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="P13">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="Q13">
-        <v>42.90549030958359</v>
+        <v>48.41691190854</v>
       </c>
       <c r="R13">
-        <v>42.90549030958359</v>
+        <v>435.7522071768601</v>
       </c>
       <c r="S13">
-        <v>9.6570595708563E-05</v>
+        <v>0.0001039125102135204</v>
       </c>
       <c r="T13">
-        <v>9.6570595708563E-05</v>
+        <v>0.0001039125102135204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H14">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.43724603514203</v>
+        <v>6.546185</v>
       </c>
       <c r="N14">
-        <v>4.43724603514203</v>
+        <v>19.638555</v>
       </c>
       <c r="O14">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="P14">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="Q14">
-        <v>117.161279579938</v>
+        <v>183.8354354165367</v>
       </c>
       <c r="R14">
-        <v>117.161279579938</v>
+        <v>1654.51891874883</v>
       </c>
       <c r="S14">
-        <v>0.0002637036538068621</v>
+        <v>0.0003945481198060132</v>
       </c>
       <c r="T14">
-        <v>0.0002637036538068621</v>
+        <v>0.0003945481198060132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H15">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.80083992085861</v>
+        <v>71.03440333333334</v>
       </c>
       <c r="N15">
-        <v>70.80083992085861</v>
+        <v>213.10321</v>
       </c>
       <c r="O15">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510699</v>
       </c>
       <c r="P15">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510698</v>
       </c>
       <c r="Q15">
-        <v>1869.42913121486</v>
+        <v>1994.847451811585</v>
       </c>
       <c r="R15">
-        <v>1869.42913121486</v>
+        <v>17953.62706630426</v>
       </c>
       <c r="S15">
-        <v>0.004207663950085099</v>
+        <v>0.004281347116940427</v>
       </c>
       <c r="T15">
-        <v>0.004207663950085099</v>
+        <v>0.004281347116940427</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H16">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.300028312245914</v>
+        <v>0.3068453333333334</v>
       </c>
       <c r="N16">
-        <v>0.300028312245914</v>
+        <v>0.920536</v>
       </c>
       <c r="O16">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="P16">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="Q16">
-        <v>7.921963464398091</v>
+        <v>8.617086968801779</v>
       </c>
       <c r="R16">
-        <v>7.921963464398091</v>
+        <v>77.55378271921599</v>
       </c>
       <c r="S16">
-        <v>1.783055560997783E-05</v>
+        <v>1.849401587915955E-05</v>
       </c>
       <c r="T16">
-        <v>1.783055560997783E-05</v>
+        <v>1.849401587915955E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H17">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.6627912311017</v>
+        <v>17.965059</v>
       </c>
       <c r="N17">
-        <v>16.6627912311017</v>
+        <v>53.895177</v>
       </c>
       <c r="O17">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="P17">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="Q17">
-        <v>439.9652231469641</v>
+        <v>504.509793650618</v>
       </c>
       <c r="R17">
-        <v>439.9652231469641</v>
+        <v>4540.588142855562</v>
       </c>
       <c r="S17">
-        <v>0.0009902626303483332</v>
+        <v>0.001082780314130153</v>
       </c>
       <c r="T17">
-        <v>0.0009902626303483332</v>
+        <v>0.001082780314130153</v>
       </c>
     </row>
   </sheetData>
